--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acoscolin\Desktop\AMERICANAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D167BA8-0BD6-4C01-AC97-648B64C63F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7291684-A704-470B-A8D3-A9B6725741C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$C$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$D$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="174">
   <si>
     <t>Nombre y apellidos</t>
   </si>
@@ -549,6 +549,15 @@
   </si>
   <si>
     <t>NIVEL</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>CHICA</t>
   </si>
 </sst>
 </file>
@@ -759,7 +768,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -775,6 +784,31 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -856,10 +890,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -874,13 +908,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:C163" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
-  <autoFilter ref="A1:C163" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:D163" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
+  <autoFilter ref="A1:D163" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
     <sortCondition ref="A1:A184"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIVEL" dataDxfId="2"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIVEL" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6388DAD0-8056-4245-A835-76301A503E4C}" name="Género" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre y apellidos" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Número de teléfono" dataDxfId="0"/>
   </tableColumns>
@@ -1089,2161 +1124,2672 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H10:H11"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>606220068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="9">
         <v>606163956</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>655132343</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <v>630681727</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="9">
         <v>625248776</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="9">
         <v>635198182</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="9">
         <v>666080738</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="9">
         <v>600410483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D10" s="9">
         <v>606557875</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D11" s="9">
         <v>620597669</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="9">
         <v>622053220</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="9">
         <v>669061970</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
         <v>691868067</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>653241102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="9">
         <v>607034287</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>722535577</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>640677832</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>699572103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>683615092</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>658904074</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>687806479</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>669475989</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>676410577</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>600057944</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>620188338</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>603602342</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>676024269</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>646169823</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>667725861</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>60716380</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>622427803</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>617938301</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>644412306</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>656989230</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>609340623</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="9">
+      <c r="D37" s="9">
         <v>664605659</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="9">
+      <c r="D38" s="9">
         <v>660103947</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="8">
+      <c r="D39" s="8">
         <v>639640163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="9">
+      <c r="D40" s="9">
         <v>610830776</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="9">
+      <c r="D41" s="9">
         <v>63823286</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="9">
+      <c r="D42" s="9">
         <v>625882517</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="9">
+      <c r="D43" s="9">
         <v>637521778</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="9">
+      <c r="D44" s="9">
         <v>670263922</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="9">
+      <c r="D45" s="9">
         <v>647635991</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="9">
+      <c r="D46" s="9">
         <v>620015515</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="9">
+      <c r="D47" s="9">
         <v>661108647</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="9">
+      <c r="D49" s="9">
         <v>664020122</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="9">
+      <c r="D50" s="9">
         <v>619524874</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="9">
+      <c r="D51" s="9">
         <v>660340715</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="9">
+      <c r="D52" s="9">
         <v>699601764</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="9">
+      <c r="D53" s="9">
         <v>628112462</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="9">
+      <c r="D54" s="9">
         <v>667974931</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="8">
+      <c r="D55" s="8">
         <v>644444319</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="8">
+      <c r="D56" s="8">
         <v>696422128</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="9">
+      <c r="D57" s="9">
         <v>648096123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="9">
+      <c r="D58" s="9">
         <v>619730816</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="9">
+      <c r="D59" s="9">
         <v>630569255</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="9">
+      <c r="D60" s="9">
         <v>650521668</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="9">
+      <c r="D61" s="9">
         <v>622727475</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="9">
+      <c r="D62" s="9">
         <v>620679004</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="9">
+      <c r="D63" s="9">
         <v>608185320</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="11">
+      <c r="D64" s="11">
         <v>605036686</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="15">
+      <c r="D65" s="15">
         <v>629441650</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>636514362</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="5">
+      <c r="D67" s="5">
         <v>630132285</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>657467573</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>608209007</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>645895958</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>636252043</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>636776592</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>646525263</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D74" s="2">
         <v>666050302</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>627974750</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>648828737</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>605585184</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>605585184</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>669329212</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>663071282</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>650870484</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="9">
+      <c r="D84" s="9">
         <v>663946388</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="9">
+      <c r="D85" s="9">
         <v>617078923</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C86" s="9">
+      <c r="D86" s="9">
         <v>660149966</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="9">
+      <c r="D87" s="9">
         <v>696179599</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C88" s="9">
+      <c r="D88" s="9">
         <v>687868069</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="9">
+      <c r="D89" s="9">
         <v>636407210</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="9">
+      <c r="D90" s="9">
         <v>657652817</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="9">
+      <c r="D91" s="9">
         <v>680502210</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="9">
+      <c r="D92" s="9">
         <v>656333800</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="9">
+      <c r="D93" s="9">
         <v>696101278</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="13">
+      <c r="D94" s="13">
         <v>609405289</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="9">
+      <c r="D95" s="9">
         <v>657581454</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="9">
+      <c r="D96" s="9">
         <v>699217479</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C97" s="9">
+      <c r="D97" s="9">
         <v>635404490</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="9">
+      <c r="D98" s="9">
         <v>696897283</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="9">
+      <c r="D99" s="9">
         <v>650362634</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="8">
+      <c r="D100" s="8">
         <v>627430755</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="9">
+      <c r="D101" s="9">
         <v>613010874</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>607224061</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>649219350</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>617979850</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>646603954</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="1">
         <v>645934803</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="1">
         <v>630882973</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="2">
+      <c r="D108" s="2">
         <v>610712798</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="1">
+      <c r="D109" s="1">
         <v>661160549</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C110" s="2">
+      <c r="D110" s="2">
         <v>663369382</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C111" s="2">
+      <c r="D111" s="2">
         <v>650941040</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="1">
         <v>660307261</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="1">
         <v>626823635</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>623206328</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="1">
         <v>618353118</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="1">
         <v>658128436</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>670250716</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>610511698</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C120" s="1">
+      <c r="D120" s="1">
         <v>697723371</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>650870484</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="9">
+      <c r="D122" s="9">
         <v>607563723</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="D123" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="9">
+      <c r="D124" s="9">
         <v>608048666</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="9">
+      <c r="D125" s="9">
         <v>657525190</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C126" s="9">
+      <c r="D126" s="9">
         <v>678913087</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C127" s="9">
+      <c r="D127" s="9">
         <v>686101804</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="9">
+      <c r="D128" s="9">
         <v>659718012</v>
       </c>
-      <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="9">
+      <c r="D129" s="9">
         <v>633303771</v>
       </c>
-      <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C130" s="9">
+      <c r="D130" s="9">
         <v>616068976</v>
       </c>
-      <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-    </row>
-    <row r="131" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C131" s="9">
+      <c r="D131" s="9">
         <v>626109887</v>
       </c>
-      <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-    </row>
-    <row r="132" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="D132" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-    </row>
-    <row r="133" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C133" s="9">
+      <c r="D133" s="9">
         <v>613010874</v>
       </c>
-      <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="9">
+      <c r="D134" s="9">
         <v>677275398</v>
       </c>
-      <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-    </row>
-    <row r="135" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="9">
+      <c r="D135" s="9">
         <v>605779897</v>
       </c>
-      <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-    </row>
-    <row r="136" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="9">
+      <c r="D136" s="9">
         <v>687127713</v>
       </c>
-      <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-    </row>
-    <row r="137" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C137" s="2">
+      <c r="D137" s="2">
         <v>696359442</v>
       </c>
-      <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-    </row>
-    <row r="138" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>679004717</v>
       </c>
-      <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-    </row>
-    <row r="139" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="1">
         <v>639345645</v>
       </c>
-      <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="1">
         <v>655280281</v>
       </c>
-      <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-    </row>
-    <row r="141" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C141" s="2">
+      <c r="D141" s="2">
         <v>670454813</v>
       </c>
-      <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C142" s="2">
+      <c r="D142" s="2">
         <v>667767494</v>
       </c>
-      <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-    </row>
-    <row r="143" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D143" s="1">
         <v>666716626</v>
       </c>
-      <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-    </row>
-    <row r="144" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C144" s="1">
+      <c r="D144" s="1">
         <v>667223534</v>
       </c>
-      <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C145" s="1">
+      <c r="D145" s="1">
         <v>651842497</v>
       </c>
-      <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C146" s="2">
+      <c r="D146" s="2">
         <v>658136860</v>
       </c>
-      <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C147" s="2">
+      <c r="D147" s="2">
         <v>654172013</v>
       </c>
-      <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C148" s="1">
+      <c r="D148" s="1">
         <v>678560840</v>
       </c>
-      <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C149" s="1">
+      <c r="D149" s="1">
         <v>609815330</v>
       </c>
-      <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C150" s="2">
+      <c r="D150" s="2">
         <v>655684949</v>
       </c>
-      <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C151" s="2">
+      <c r="D151" s="2">
         <v>644304498</v>
       </c>
-      <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="1">
+      <c r="D152" s="1">
         <v>632732362</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C153" s="1">
+      <c r="D153" s="1">
         <v>609628981</v>
       </c>
-      <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="2">
+      <c r="D154" s="2">
         <v>676027823</v>
       </c>
-      <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="1">
+      <c r="D155" s="1">
         <v>671541433</v>
       </c>
-      <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="1">
+      <c r="D156" s="1">
         <v>618462482</v>
       </c>
-      <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C157" s="1">
+      <c r="D157" s="1">
         <v>629621183</v>
       </c>
-      <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="2">
+      <c r="D158" s="2">
         <v>657949743</v>
       </c>
-      <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C159" s="1">
+      <c r="D159" s="1">
         <v>627362511</v>
       </c>
-      <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="1">
+      <c r="D160" s="1">
         <v>622170435</v>
       </c>
-      <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C161" s="1">
+      <c r="D161" s="1">
         <v>639147090</v>
       </c>
-      <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C162" s="1">
+      <c r="D162" s="1">
         <v>637187616</v>
       </c>
-      <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C163" s="1">
+      <c r="D163" s="1">
         <v>654615665</v>
       </c>
-      <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
-      <c r="D164" s="6"/>
+      <c r="D164"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="6"/>
+      <c r="D165"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="6"/>
+      <c r="D166"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="6"/>
+      <c r="D167"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="6"/>
+      <c r="D168"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
-      <c r="D169" s="6"/>
+      <c r="D169"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
-      <c r="D170" s="6"/>
+      <c r="D170"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-    </row>
-    <row r="171" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
-      <c r="D171" s="6"/>
+      <c r="D171"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-    </row>
-    <row r="172" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
-      <c r="D172" s="6"/>
+      <c r="D172"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-    </row>
-    <row r="173" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
-      <c r="D173" s="6"/>
+      <c r="D173"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-    </row>
-    <row r="174" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
-      <c r="D174" s="6"/>
+      <c r="D174"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
-      <c r="D175" s="6"/>
+      <c r="D175"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-    </row>
-    <row r="176" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="6"/>
+      <c r="D176"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
-      <c r="D177" s="6"/>
+      <c r="D177"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
-      <c r="D178" s="6"/>
+      <c r="D178"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-    </row>
-    <row r="179" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
-      <c r="D179" s="6"/>
+      <c r="D179"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-    </row>
-    <row r="180" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
-      <c r="D180" s="6"/>
+      <c r="D180"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-    </row>
-    <row r="181" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
-      <c r="D181" s="6"/>
+      <c r="D181"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-    </row>
-    <row r="182" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
-      <c r="D182" s="6"/>
+      <c r="D182"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-    </row>
-    <row r="183" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
-      <c r="D183" s="6"/>
+      <c r="D183"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-    </row>
-    <row r="184" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
-      <c r="D184" s="6"/>
+      <c r="D184"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
-    </row>
-    <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B187" s="7"/>
-    </row>
-    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B188" s="7"/>
-    </row>
-    <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B189" s="7"/>
-    </row>
-    <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B190" s="7"/>
-    </row>
-    <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B191" s="7"/>
-    </row>
-    <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C187" s="7"/>
+    </row>
+    <row r="188" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C188" s="7"/>
+    </row>
+    <row r="189" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C189" s="7"/>
+    </row>
+    <row r="190" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C190" s="7"/>
+    </row>
+    <row r="191" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C191" s="7"/>
+    </row>
+    <row r="192" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
